--- a/GCS/war/datadocs/templateCarteraAntig.xlsx
+++ b/GCS/war/datadocs/templateCarteraAntig.xlsx
@@ -76,9 +76,6 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>COD. SERVICIO</t>
-  </si>
-  <si>
     <t>OBSERVACIONES</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>FECHA ESTIMADA FIN PRUEBAS</t>
+  </si>
+  <si>
+    <t>COD. REDMINE</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
     <tableColumn id="17" name="PAIS"/>
     <tableColumn id="18" name="SERVICIO"/>
     <tableColumn id="19" name="ESTADO"/>
-    <tableColumn id="20" name="COD. SERVICIO"/>
+    <tableColumn id="20" name="COD. REDMINE"/>
     <tableColumn id="21" name="OBSERVACIONES"/>
     <tableColumn id="22" name="FORMATO INTERMEDIO"/>
     <tableColumn id="23" name="FORMATO LOCAL"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -647,61 +647,61 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" thickTop="1"/>

--- a/GCS/war/datadocs/templateCarteraAntig.xlsx
+++ b/GCS/war/datadocs/templateCarteraAntig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="19440" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Cartera" sheetId="1" r:id="rId1"/>
@@ -17,120 +17,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>FECHA ALTA</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
-    <t>CLASIFICACION</t>
-  </si>
-  <si>
-    <t>GESTOR IT</t>
-  </si>
-  <si>
-    <t>GESTOR NEGOCIO</t>
-  </si>
-  <si>
-    <t>COSTE</t>
-  </si>
-  <si>
-    <t>PRODUCTO</t>
-  </si>
-  <si>
-    <t>CONECTIVIDAD</t>
-  </si>
-  <si>
-    <t>FECHA INICIO VALORACION</t>
-  </si>
-  <si>
-    <t>FECHA FIN VALORACION</t>
-  </si>
-  <si>
-    <t>FECHA INICIO VIABILIDAD</t>
-  </si>
-  <si>
-    <t>FECHA FIN VIABILIDAD</t>
-  </si>
-  <si>
-    <t>FECHA ENVIO C100</t>
-  </si>
-  <si>
-    <t>FECHA OK NEGOCIO</t>
-  </si>
-  <si>
-    <t>COD. PROYECTO</t>
-  </si>
-  <si>
-    <t>PAIS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>SERVICIO</t>
   </si>
   <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>FORMATO INTERMEDIO</t>
-  </si>
-  <si>
     <t>FORMATO LOCAL</t>
   </si>
   <si>
-    <t>REF. LOCAL 1</t>
-  </si>
-  <si>
-    <t>REF. LOCAL 2</t>
-  </si>
-  <si>
-    <t>FECHA INICIO INTEGRADAS</t>
-  </si>
-  <si>
-    <t>FECHA FIN INTEGRADAS</t>
-  </si>
-  <si>
-    <t>FECHA INICIO ACEPTACIÓN</t>
-  </si>
-  <si>
-    <t>FECHA FIN ACEPTACIÓN</t>
-  </si>
-  <si>
-    <t>FECHA INICIO VALIDACION</t>
-  </si>
-  <si>
-    <t>FECHA FIN VALIDACION</t>
-  </si>
-  <si>
-    <t>FECHA IMPLANTACION-PRODUCCIÓN</t>
-  </si>
-  <si>
-    <t>FECHA INICIO PRIMERA OPERACIÓN</t>
-  </si>
-  <si>
-    <t>FECHA FIN PRIMERA OPERACIÓN</t>
-  </si>
-  <si>
-    <t>FECHA INICIO OPERACIÓN CLIENTE</t>
-  </si>
-  <si>
-    <t>FECHA PASO ANS</t>
-  </si>
-  <si>
-    <t>FECHA ESTIMADA PRUEBAS</t>
-  </si>
-  <si>
-    <t>FECHA ESTIMADA FIN PRUEBAS</t>
+    <t xml:space="preserve">CLIENTE </t>
+  </si>
+  <si>
+    <t>ID.CLIENTE</t>
+  </si>
+  <si>
+    <t>REFERENCIA GLOBAL B2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO CLIENTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO PROYECTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTIVIDAD </t>
+  </si>
+  <si>
+    <t>SEGURIDAD</t>
+  </si>
+  <si>
+    <t>PAÍS</t>
+  </si>
+  <si>
+    <t>EXTENSIÓN SERVICIO</t>
+  </si>
+  <si>
+    <t>ESTADO IMPLEMENTACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTOR IT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTOR DE NEGOCIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA ALTA PROYECTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASIFICACIÓN PROYECTO </t>
+  </si>
+  <si>
+    <t>COSTE PROYECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBSERVACIONES </t>
+  </si>
+  <si>
+    <t>REFERENCIA LOCAL INTEGRADO</t>
+  </si>
+  <si>
+    <t>REFERENCIA LOCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA INICIO ESPECIFICACIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA FIN ESPECIFICACIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA ENVIO C100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA OK NEGOCIO C100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA INICIO VIABILIDAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA FIN VIABILIDAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA ENVIO PLAN TRABAJO Y PRUEBAS </t>
+  </si>
+  <si>
+    <t>FECHA OK NEGOCIO VALORACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DISPONIBLE CONECTIVIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA ESTIMADA PRUEBAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA ESTIMADA FIN PRUEBAS </t>
+  </si>
+  <si>
+    <t>FECHA INICIO INFRAESTRUCTURA</t>
+  </si>
+  <si>
+    <t>FECHA FIN INFRAESTRUCTURA</t>
+  </si>
+  <si>
+    <t>FECHA IMPLANTACIÓN CONECTIVIDAD</t>
+  </si>
+  <si>
+    <t>FECHA INICIO SEGURIDAD</t>
+  </si>
+  <si>
+    <t>FECHA FIN SEGURIDAD</t>
+  </si>
+  <si>
+    <t>ESTADO CONECTIVIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA INICIO P.INTEGRADAS </t>
+  </si>
+  <si>
+    <t>FECHA FIN P.INTEGRADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA INICIO P.ACEPTACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA FIN P.ACEPTACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA IMPLANTACIÓN SERV. PRODUCCIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA INICIO VALIDACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA FIN VALIDACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA INICIO PRIMERA OPERACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA FIN PRIMERA OPERACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA INICIO OPERACIÓN CLIENTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA PASO ANS </t>
   </si>
   <si>
     <t>COD. REDMINE</t>
+  </si>
+  <si>
+    <t>PETICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROYECTO </t>
+  </si>
+  <si>
+    <t>SUBTIPO PROYECTO</t>
+  </si>
+  <si>
+    <t>GESTOR DE PRUEBAS</t>
+  </si>
+  <si>
+    <t>FORMATO ENTRADA/SALIDA</t>
   </si>
 </sst>
 </file>
@@ -163,7 +214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,13 +228,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,61 +256,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AL1048576" totalsRowShown="0">
-  <autoFilter ref="A1:AL1048576"/>
-  <tableColumns count="38">
-    <tableColumn id="1" name="FECHA ALTA"/>
-    <tableColumn id="2" name="TIPO"/>
-    <tableColumn id="3" name="CLIENTE"/>
-    <tableColumn id="4" name="CLASIFICACION" dataDxfId="0"/>
-    <tableColumn id="5" name="GESTOR IT"/>
-    <tableColumn id="6" name="GESTOR NEGOCIO"/>
-    <tableColumn id="7" name="COSTE"/>
-    <tableColumn id="8" name="PRODUCTO"/>
-    <tableColumn id="9" name="CONECTIVIDAD"/>
-    <tableColumn id="10" name="FECHA INICIO VALORACION"/>
-    <tableColumn id="11" name="FECHA FIN VALORACION"/>
-    <tableColumn id="12" name="FECHA INICIO VIABILIDAD"/>
-    <tableColumn id="13" name="FECHA FIN VIABILIDAD"/>
-    <tableColumn id="14" name="FECHA ENVIO C100"/>
-    <tableColumn id="15" name="FECHA OK NEGOCIO"/>
-    <tableColumn id="16" name="COD. PROYECTO"/>
-    <tableColumn id="17" name="PAIS"/>
-    <tableColumn id="18" name="SERVICIO"/>
-    <tableColumn id="19" name="ESTADO"/>
-    <tableColumn id="20" name="COD. REDMINE"/>
-    <tableColumn id="21" name="OBSERVACIONES"/>
-    <tableColumn id="22" name="FORMATO INTERMEDIO"/>
-    <tableColumn id="23" name="FORMATO LOCAL"/>
-    <tableColumn id="24" name="REF. LOCAL 1"/>
-    <tableColumn id="25" name="REF. LOCAL 2"/>
-    <tableColumn id="26" name="FECHA INICIO INTEGRADAS"/>
-    <tableColumn id="27" name="FECHA FIN INTEGRADAS"/>
-    <tableColumn id="28" name="FECHA INICIO ACEPTACIÓN"/>
-    <tableColumn id="29" name="FECHA FIN ACEPTACIÓN"/>
-    <tableColumn id="30" name="FECHA INICIO VALIDACION"/>
-    <tableColumn id="31" name="FECHA FIN VALIDACION"/>
-    <tableColumn id="32" name="FECHA IMPLANTACION-PRODUCCIÓN"/>
-    <tableColumn id="33" name="FECHA INICIO PRIMERA OPERACIÓN"/>
-    <tableColumn id="34" name="FECHA FIN PRIMERA OPERACIÓN"/>
-    <tableColumn id="35" name="FECHA INICIO OPERACIÓN CLIENTE"/>
-    <tableColumn id="36" name="FECHA PASO ANS"/>
-    <tableColumn id="37" name="FECHA ESTIMADA PRUEBAS"/>
-    <tableColumn id="38" name="FECHA ESTIMADA FIN PRUEBAS"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,72 +546,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:BC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="24" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" customWidth="1"/>
-    <col min="24" max="25" width="14.28515625" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" customWidth="1"/>
-    <col min="27" max="27" width="24.140625" customWidth="1"/>
-    <col min="28" max="28" width="26.85546875" customWidth="1"/>
-    <col min="29" max="29" width="24.140625" customWidth="1"/>
-    <col min="30" max="30" width="26.5703125" customWidth="1"/>
-    <col min="31" max="31" width="23.85546875" customWidth="1"/>
-    <col min="32" max="32" width="36.140625" customWidth="1"/>
-    <col min="33" max="33" width="34.5703125" customWidth="1"/>
-    <col min="34" max="34" width="31.85546875" customWidth="1"/>
-    <col min="35" max="35" width="33.42578125" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" customWidth="1"/>
-    <col min="37" max="37" width="27.140625" customWidth="1"/>
-    <col min="38" max="38" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="15" max="15" width="32.140625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="18" width="31.85546875" customWidth="1"/>
+    <col min="19" max="20" width="28.42578125" customWidth="1"/>
+    <col min="21" max="22" width="20.85546875" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" customWidth="1"/>
+    <col min="26" max="27" width="30.140625" customWidth="1"/>
+    <col min="28" max="28" width="34.5703125" customWidth="1"/>
+    <col min="29" max="29" width="41" customWidth="1"/>
+    <col min="30" max="30" width="26.85546875" customWidth="1"/>
+    <col min="31" max="31" width="24.140625" customWidth="1"/>
+    <col min="32" max="32" width="26.5703125" customWidth="1"/>
+    <col min="33" max="33" width="23.85546875" customWidth="1"/>
+    <col min="34" max="34" width="46.140625" customWidth="1"/>
+    <col min="35" max="35" width="34.5703125" customWidth="1"/>
+    <col min="36" max="36" width="31.85546875" customWidth="1"/>
+    <col min="37" max="37" width="33.42578125" customWidth="1"/>
+    <col min="38" max="38" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="27.140625" customWidth="1"/>
+    <col min="40" max="40" width="30.5703125" customWidth="1"/>
+    <col min="41" max="55" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" thickBot="1">
+    <row r="1" spans="1:55">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -620,96 +625,143 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>36</v>
+      <c r="AS1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>